--- a/output_cx/ouput_cx.xlsx
+++ b/output_cx/ouput_cx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.shirole\Project\Sentiment_Project\output_cx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA457B-B63B-464D-B5E7-1F31A5621D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D734F-7A91-4776-85C3-B8CB1D6D2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1656" yWindow="1260" windowWidth="7668" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -622,11 +622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="83.77734375" customWidth="1"/>
     <col min="3" max="3" width="55.109375" customWidth="1"/>
   </cols>
